--- a/Study 3/Shocks/GCAM/NDC_LTT - 2040.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_LTT - 2040.xlsx
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.05506428173525521</v>
+        <v>0.05506428173525522</v>
       </c>
     </row>
     <row r="5">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.07123213864049127</v>
+        <v>0.07123213864049129</v>
       </c>
     </row>
     <row r="29">
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.1642264088884641</v>
+        <v>0.1642264088884642</v>
       </c>
     </row>
     <row r="37">
